--- a/Mid term/Test design/Test design assignment 2.xlsx
+++ b/Mid term/Test design/Test design assignment 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vnlon\Documents\Nashtech\Mid term\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vnlon\Documents\Nashtech\Mid term\Test design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334AAC6E-73EE-4602-9904-719B23C6A2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB1896E-BBF8-4F08-B99C-AE9294C46956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{ACDDFCEA-246E-4ED8-92FA-4CD776DF4449}"/>
   </bookViews>
@@ -650,12 +650,6 @@
     <t>Verrify that the fullname is blank when get the page  to create new account with Email</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify field ‘Get email Code' is displayed when Enter valid phone number </t>
-  </si>
-  <si>
-    <t>Verify that Email code is sent when Enter valid phone number when click on ‘Slide to get SMS code’ button</t>
-  </si>
-  <si>
     <t>Verify that account can be created successfully when enter the correct Email Verification Code, other mandatory fields and clicking on ‘Sign up’ button. User can login with recently created user</t>
   </si>
   <si>
@@ -672,30 +666,6 @@
   </si>
   <si>
     <t>Verify that error message pop-up if input  Email Address correct format but does not exist email</t>
-  </si>
-  <si>
-    <t>Verify that  swip Slide to get Email Code is disable when entering nothing in email field</t>
-  </si>
-  <si>
-    <t>Verify that show error message if swip Slide to get Email Code when Email Address is in correct format but does not exist email</t>
-  </si>
-  <si>
-    <t>Verify that show error message if swip Slide to get Email Code when Email Address is in incorrect format</t>
-  </si>
-  <si>
-    <t>Verify that  swip Slide to get SMS Code is disable when entering nothing in phone number field</t>
-  </si>
-  <si>
-    <t>Verify that Slide to get SMS Code can swip if input valid phone number</t>
-  </si>
-  <si>
-    <t>Verify that show error message if swip Slide to get SMS Code when phone number is in correct format but does not exist email</t>
-  </si>
-  <si>
-    <t>Verify that show error message if swip Slide to get Email Code when phone number is in incorrect format</t>
-  </si>
-  <si>
-    <t>Verify that Slide to get Email Code can swip if entering valid email</t>
   </si>
   <si>
     <t>Verify that new pop-up will be displayed to confirm if user is ready to continue login with Facebook when Click on ‘Facebook’ button</t>
@@ -715,6 +685,36 @@
   </si>
   <si>
     <t>Asignment 2</t>
+  </si>
+  <si>
+    <t>Verify that Slide to get SMS Code is enable if input valid phone number</t>
+  </si>
+  <si>
+    <t>Verify that Slide to get SMS Code is disable when entering nothing in phone number field</t>
+  </si>
+  <si>
+    <t>Verify that Slide to get Email Code is enable when entering valid email</t>
+  </si>
+  <si>
+    <t>Verify that show error message for Slide to get Email Code when Email Address is in incorrect format</t>
+  </si>
+  <si>
+    <t>Verify that show error message for Slide to get Email Code when Email Address is in correct format but does not exist email</t>
+  </si>
+  <si>
+    <t>Verify that Slide to get Email Code is disable when entering nothing in email field</t>
+  </si>
+  <si>
+    <t>Verify that Email code is sent when Enter valid email then click on ‘Slide to get email code’ button</t>
+  </si>
+  <si>
+    <t>Verify field ‘Get email Code' is displayed when Enter valid email</t>
+  </si>
+  <si>
+    <t>Verify that show error message for Slide to get SMS Code when phone number is in incorrect format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that shows error message for Slide to get SMS Code when phone number is in correct format but does not exist </t>
   </si>
 </sst>
 </file>
@@ -723,7 +723,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1213,48 +1213,48 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="17" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="17" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="17" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="17" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="12" applyFont="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="12" applyFont="0"/>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="18" borderId="12">
+    <xf numFmtId="165" fontId="9" fillId="18" borderId="12">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="19" borderId="12" applyAlignment="0">
+    <xf numFmtId="165" fontId="9" fillId="19" borderId="12" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="23" fillId="16" borderId="0">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="23" fillId="16" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="20" borderId="7">
+    <xf numFmtId="165" fontId="24" fillId="20" borderId="7">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="21" borderId="7">
+    <xf numFmtId="165" fontId="21" fillId="21" borderId="7">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1417,72 +1417,6 @@
     <xf numFmtId="0" fontId="18" fillId="15" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1491,70 +1425,104 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2072,52 +2040,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11A7E89-16D9-4F36-852B-6757B827A8F5}">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="101" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="71" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.6">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:9" ht="26.25">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="91"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="22.8">
+    <row r="2" spans="1:9" ht="23.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="76"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="91"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="26.4">
+    <row r="3" spans="1:9" ht="25.5">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="78" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
+      <c r="B3" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -2128,24 +2096,24 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="26.4">
+    <row r="5" spans="1:9" ht="25.5">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="79" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="81"/>
+      <c r="B5" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="95"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -2156,11 +2124,11 @@
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67"/>
+      <c r="B6" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -2171,9 +2139,9 @@
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
       <c r="E7" s="5"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -2184,7 +2152,7 @@
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="112" t="str">
+      <c r="B8" s="10" t="str">
         <f>F16</f>
         <v>Environment 1</v>
       </c>
@@ -2206,7 +2174,7 @@
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="113">
+      <c r="B9" s="12">
         <f>SUM(B10:B13)</f>
         <v>0</v>
       </c>
@@ -2228,7 +2196,7 @@
       <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="114">
+      <c r="B10" s="13">
         <f>COUNTIF($F$19:$F$49667,"*Passed")</f>
         <v>0</v>
       </c>
@@ -2250,7 +2218,7 @@
       <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="114">
+      <c r="B11" s="13">
         <f>COUNTIF($F$19:$F$49387,"*Failed*")</f>
         <v>0</v>
       </c>
@@ -2272,7 +2240,7 @@
       <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="114">
+      <c r="B12" s="13">
         <f>COUNTIF($F$19:$F$49387,"*Not Run*")</f>
         <v>0</v>
       </c>
@@ -2294,7 +2262,7 @@
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="114">
+      <c r="B13" s="13">
         <f>COUNTIF($F$19:$F$49387,"*NA*")</f>
         <v>0</v>
       </c>
@@ -2312,11 +2280,11 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="39.6">
+    <row r="14" spans="1:9" ht="38.25">
       <c r="A14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="114">
+      <c r="B14" s="13">
         <f>COUNTIF($F$19:$F$49387,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
@@ -2336,22 +2304,22 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="15"/>
-      <c r="B15" s="110"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="71" t="s">
+      <c r="F15" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="72"/>
-      <c r="H15" s="73"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" ht="60.75" customHeight="1">
       <c r="A16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="20" t="s">
@@ -2378,7 +2346,7 @@
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1">
       <c r="A17" s="32"/>
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="73" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="45"/>
@@ -2402,11 +2370,11 @@
       <c r="H18" s="33"/>
       <c r="I18" s="32"/>
     </row>
-    <row r="19" spans="1:9" ht="26.4">
+    <row r="19" spans="1:9" ht="25.5">
       <c r="A19" s="22">
         <v>1</v>
       </c>
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="22"/>
@@ -2417,11 +2385,11 @@
       <c r="H19" s="22"/>
       <c r="I19" s="25"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="25.5">
       <c r="A20" s="26">
         <v>2</v>
       </c>
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="22"/>
@@ -2436,7 +2404,7 @@
       <c r="A21" s="26">
         <v>3</v>
       </c>
-      <c r="B21" s="111" t="s">
+      <c r="B21" s="22" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="22"/>
@@ -2464,7 +2432,7 @@
       <c r="A23" s="26">
         <v>4</v>
       </c>
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="22"/>
@@ -2492,7 +2460,7 @@
       <c r="A25" s="26">
         <v>5</v>
       </c>
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="22"/>
@@ -2509,7 +2477,7 @@
       <c r="A26" s="26">
         <v>6</v>
       </c>
-      <c r="B26" s="111" t="s">
+      <c r="B26" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="22"/>
@@ -2524,7 +2492,7 @@
       <c r="A27" s="26">
         <v>7</v>
       </c>
-      <c r="B27" s="111" t="s">
+      <c r="B27" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="22"/>
@@ -2548,11 +2516,11 @@
       <c r="H28" s="33"/>
       <c r="I28" s="32"/>
     </row>
-    <row r="29" spans="1:9" ht="26.4">
+    <row r="29" spans="1:9" ht="25.5">
       <c r="A29" s="26">
         <v>8</v>
       </c>
-      <c r="B29" s="111" t="s">
+      <c r="B29" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="22"/>
@@ -2563,11 +2531,11 @@
       <c r="H29" s="22"/>
       <c r="I29" s="27"/>
     </row>
-    <row r="30" spans="1:9" ht="26.4">
+    <row r="30" spans="1:9" ht="25.5">
       <c r="A30" s="26">
         <v>9</v>
       </c>
-      <c r="B30" s="111" t="s">
+      <c r="B30" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="22"/>
@@ -2578,11 +2546,11 @@
       <c r="H30" s="22"/>
       <c r="I30" s="27"/>
     </row>
-    <row r="31" spans="1:9" ht="26.4">
+    <row r="31" spans="1:9" ht="25.5">
       <c r="A31" s="26">
         <v>10</v>
       </c>
-      <c r="B31" s="111" t="s">
+      <c r="B31" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="22"/>
@@ -2593,11 +2561,11 @@
       <c r="H31" s="22"/>
       <c r="I31" s="27"/>
     </row>
-    <row r="32" spans="1:9" ht="26.4">
+    <row r="32" spans="1:9" ht="25.5">
       <c r="A32" s="26">
         <v>11</v>
       </c>
-      <c r="B32" s="111" t="s">
+      <c r="B32" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="22"/>
@@ -2608,11 +2576,11 @@
       <c r="H32" s="22"/>
       <c r="I32" s="27"/>
     </row>
-    <row r="33" spans="1:9" ht="26.4">
+    <row r="33" spans="1:9" ht="25.5">
       <c r="A33" s="26">
         <v>12</v>
       </c>
-      <c r="B33" s="111" t="s">
+      <c r="B33" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="22"/>
@@ -2625,16 +2593,16 @@
     </row>
     <row r="34" spans="1:9" ht="42" customHeight="1">
       <c r="A34" s="37"/>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="99"/>
     </row>
     <row r="35" spans="1:9" ht="26.25" customHeight="1">
       <c r="A35" s="35"/>
@@ -2649,11 +2617,11 @@
       <c r="H35" s="29"/>
       <c r="I35" s="36"/>
     </row>
-    <row r="36" spans="1:9" ht="26.4">
+    <row r="36" spans="1:9" ht="25.5">
       <c r="A36" s="26">
         <v>13</v>
       </c>
-      <c r="B36" s="111" t="s">
+      <c r="B36" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="22"/>
@@ -2664,11 +2632,11 @@
       <c r="H36" s="22"/>
       <c r="I36" s="27"/>
     </row>
-    <row r="37" spans="1:9" ht="26.4">
+    <row r="37" spans="1:9" ht="25.5">
       <c r="A37" s="26">
         <v>14</v>
       </c>
-      <c r="B37" s="111" t="s">
+      <c r="B37" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="38"/>
@@ -2679,11 +2647,11 @@
       <c r="H37" s="39"/>
       <c r="I37" s="38"/>
     </row>
-    <row r="38" spans="1:9" ht="26.4">
+    <row r="38" spans="1:9" ht="25.5">
       <c r="A38" s="26">
         <v>15</v>
       </c>
-      <c r="B38" s="111" t="s">
+      <c r="B38" s="22" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="22"/>
@@ -2694,11 +2662,11 @@
       <c r="H38" s="22"/>
       <c r="I38" s="28"/>
     </row>
-    <row r="39" spans="1:9" ht="26.4">
+    <row r="39" spans="1:9" ht="25.5">
       <c r="A39" s="26">
         <v>16</v>
       </c>
-      <c r="B39" s="111" t="s">
+      <c r="B39" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C39" s="22"/>
@@ -2722,11 +2690,11 @@
       <c r="H40" s="29"/>
       <c r="I40" s="31"/>
     </row>
-    <row r="41" spans="1:9" ht="26.4">
+    <row r="41" spans="1:9" ht="25.5">
       <c r="A41" s="26">
         <v>17</v>
       </c>
-      <c r="B41" s="111" t="s">
+      <c r="B41" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="22"/>
@@ -2750,11 +2718,11 @@
       <c r="H42" s="29"/>
       <c r="I42" s="36"/>
     </row>
-    <row r="43" spans="1:9" ht="26.4">
+    <row r="43" spans="1:9" ht="25.5">
       <c r="A43" s="26">
         <v>18</v>
       </c>
-      <c r="B43" s="111" t="s">
+      <c r="B43" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="22"/>
@@ -2765,7 +2733,7 @@
       <c r="H43" s="22"/>
       <c r="I43" s="28"/>
     </row>
-    <row r="44" spans="1:9" ht="26.4">
+    <row r="44" spans="1:9" ht="25.5">
       <c r="A44" s="47">
         <v>19</v>
       </c>
@@ -2780,7 +2748,7 @@
       <c r="H44" s="41"/>
       <c r="I44" s="40"/>
     </row>
-    <row r="45" spans="1:9" ht="26.4">
+    <row r="45" spans="1:9" ht="25.5">
       <c r="A45" s="47">
         <v>20</v>
       </c>
@@ -2812,7 +2780,7 @@
       <c r="A47" s="28">
         <v>21</v>
       </c>
-      <c r="B47" s="111" t="s">
+      <c r="B47" s="22" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="22"/>
@@ -2827,7 +2795,7 @@
       <c r="A48" s="28">
         <v>22</v>
       </c>
-      <c r="B48" s="111" t="s">
+      <c r="B48" s="22" t="s">
         <v>49</v>
       </c>
       <c r="C48" s="22"/>
@@ -2842,7 +2810,7 @@
       <c r="A49" s="28">
         <v>23</v>
       </c>
-      <c r="B49" s="111" t="s">
+      <c r="B49" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="22"/>
@@ -2857,7 +2825,7 @@
       <c r="A50" s="28">
         <v>24</v>
       </c>
-      <c r="B50" s="111" t="s">
+      <c r="B50" s="22" t="s">
         <v>52</v>
       </c>
       <c r="C50" s="22"/>
@@ -2872,7 +2840,7 @@
       <c r="A51" s="28">
         <v>25</v>
       </c>
-      <c r="B51" s="111" t="s">
+      <c r="B51" s="22" t="s">
         <v>53</v>
       </c>
       <c r="C51" s="38"/>
@@ -2885,16 +2853,16 @@
     </row>
     <row r="52" spans="1:9" ht="42" customHeight="1">
       <c r="A52" s="37"/>
-      <c r="B52" s="60" t="s">
+      <c r="B52" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="64"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="100"/>
+      <c r="I52" s="101"/>
     </row>
     <row r="53" spans="1:9" ht="32.25" customHeight="1">
       <c r="A53" s="32"/>
@@ -2909,7 +2877,7 @@
       <c r="H53" s="33"/>
       <c r="I53" s="32"/>
     </row>
-    <row r="54" spans="1:9" ht="26.4">
+    <row r="54" spans="1:9" ht="25.5">
       <c r="A54" s="47">
         <v>26</v>
       </c>
@@ -2924,7 +2892,7 @@
       <c r="H54" s="50"/>
       <c r="I54" s="49"/>
     </row>
-    <row r="55" spans="1:9" ht="26.4">
+    <row r="55" spans="1:9" ht="25.5">
       <c r="A55" s="47">
         <v>27</v>
       </c>
@@ -2939,7 +2907,7 @@
       <c r="H55" s="54"/>
       <c r="I55" s="53"/>
     </row>
-    <row r="56" spans="1:9" ht="26.4">
+    <row r="56" spans="1:9" ht="25.5">
       <c r="A56" s="47">
         <v>28</v>
       </c>
@@ -2954,7 +2922,7 @@
       <c r="H56" s="54"/>
       <c r="I56" s="53"/>
     </row>
-    <row r="57" spans="1:9" ht="26.4">
+    <row r="57" spans="1:9" ht="25.5">
       <c r="A57" s="47">
         <v>29</v>
       </c>
@@ -2969,7 +2937,7 @@
       <c r="H57" s="54"/>
       <c r="I57" s="53"/>
     </row>
-    <row r="58" spans="1:9" ht="26.4">
+    <row r="58" spans="1:9" ht="25.5">
       <c r="A58" s="47">
         <v>30</v>
       </c>
@@ -2984,7 +2952,7 @@
       <c r="H58" s="54"/>
       <c r="I58" s="53"/>
     </row>
-    <row r="59" spans="1:9" ht="26.4">
+    <row r="59" spans="1:9" ht="25.5">
       <c r="A59" s="47">
         <v>31</v>
       </c>
@@ -2999,7 +2967,7 @@
       <c r="H59" s="54"/>
       <c r="I59" s="53"/>
     </row>
-    <row r="60" spans="1:9" ht="26.4">
+    <row r="60" spans="1:9" ht="25.5">
       <c r="A60" s="47">
         <v>32</v>
       </c>
@@ -3027,7 +2995,7 @@
       <c r="H61" s="29"/>
       <c r="I61" s="31"/>
     </row>
-    <row r="62" spans="1:9" ht="26.4">
+    <row r="62" spans="1:9" ht="25.5">
       <c r="A62" s="47">
         <v>33</v>
       </c>
@@ -3055,11 +3023,11 @@
       <c r="H63" s="29"/>
       <c r="I63" s="36"/>
     </row>
-    <row r="64" spans="1:9" ht="26.4">
+    <row r="64" spans="1:9" ht="25.5">
       <c r="A64" s="47">
         <v>34</v>
       </c>
-      <c r="B64" s="111" t="s">
+      <c r="B64" s="22" t="s">
         <v>63</v>
       </c>
       <c r="C64" s="22"/>
@@ -3070,11 +3038,11 @@
       <c r="H64" s="22"/>
       <c r="I64" s="28"/>
     </row>
-    <row r="65" spans="1:9" ht="26.4">
+    <row r="65" spans="1:9" ht="25.5">
       <c r="A65" s="47">
         <v>35</v>
       </c>
-      <c r="B65" s="111" t="s">
+      <c r="B65" s="22" t="s">
         <v>64</v>
       </c>
       <c r="C65" s="22"/>
@@ -3089,7 +3057,7 @@
       <c r="A66" s="47">
         <v>36</v>
       </c>
-      <c r="B66" s="111" t="s">
+      <c r="B66" s="22" t="s">
         <v>65</v>
       </c>
       <c r="C66" s="22"/>
@@ -3113,12 +3081,12 @@
       <c r="H67" s="33"/>
       <c r="I67" s="32"/>
     </row>
-    <row r="68" spans="1:9" ht="26.4">
+    <row r="68" spans="1:9" ht="25.5">
       <c r="A68" s="28">
         <f t="shared" ref="A68:A105" ca="1" si="0">IF(OFFSET(A68,-1,0) ="",OFFSET(A68,-2,0)+1,OFFSET(A68,-1,0)+1 )</f>
         <v>37</v>
       </c>
-      <c r="B68" s="111" t="s">
+      <c r="B68" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C68" s="22"/>
@@ -3129,12 +3097,12 @@
       <c r="H68" s="22"/>
       <c r="I68" s="28"/>
     </row>
-    <row r="69" spans="1:9" ht="26.4">
+    <row r="69" spans="1:9" ht="25.5">
       <c r="A69" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>38</v>
       </c>
-      <c r="B69" s="111" t="s">
+      <c r="B69" s="22" t="s">
         <v>67</v>
       </c>
       <c r="C69" s="22"/>
@@ -3145,12 +3113,12 @@
       <c r="H69" s="22"/>
       <c r="I69" s="28"/>
     </row>
-    <row r="70" spans="1:9" ht="26.4">
+    <row r="70" spans="1:9" ht="25.5">
       <c r="A70" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>39</v>
       </c>
-      <c r="B70" s="111" t="s">
+      <c r="B70" s="22" t="s">
         <v>68</v>
       </c>
       <c r="C70" s="22"/>
@@ -3161,7 +3129,7 @@
       <c r="H70" s="22"/>
       <c r="I70" s="28"/>
     </row>
-    <row r="71" spans="1:9" s="58" customFormat="1" ht="26.4">
+    <row r="71" spans="1:9" s="58" customFormat="1" ht="25.5">
       <c r="A71" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>40</v>
@@ -3177,12 +3145,12 @@
       <c r="H71" s="50"/>
       <c r="I71" s="57"/>
     </row>
-    <row r="72" spans="1:9" ht="26.4">
+    <row r="72" spans="1:9" ht="25.5">
       <c r="A72" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
-      <c r="B72" s="111" t="s">
+      <c r="B72" s="22" t="s">
         <v>70</v>
       </c>
       <c r="C72" s="22"/>
@@ -3193,82 +3161,82 @@
       <c r="H72" s="22"/>
       <c r="I72" s="28"/>
     </row>
-    <row r="73" spans="1:9" s="82" customFormat="1" ht="26.4">
+    <row r="73" spans="1:9" ht="25.5">
       <c r="A73" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>42</v>
       </c>
-      <c r="B73" s="111" t="s">
+      <c r="B73" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
       <c r="I73" s="28"/>
     </row>
-    <row r="74" spans="1:9" s="88" customFormat="1" ht="26.4">
+    <row r="74" spans="1:9" ht="25.5">
       <c r="A74" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>43</v>
       </c>
-      <c r="B74" s="117" t="s">
+      <c r="B74" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="89"/>
-      <c r="D74" s="89"/>
-      <c r="E74" s="89"/>
-      <c r="F74" s="89"/>
-      <c r="G74" s="89"/>
-      <c r="H74" s="89"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
       <c r="I74" s="28"/>
     </row>
-    <row r="75" spans="1:9" s="88" customFormat="1" ht="26.4">
+    <row r="75" spans="1:9" ht="25.5">
       <c r="A75" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>44</v>
       </c>
-      <c r="B75" s="117" t="s">
+      <c r="B75" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="89"/>
-      <c r="D75" s="89"/>
-      <c r="E75" s="89"/>
-      <c r="F75" s="89"/>
-      <c r="G75" s="89"/>
-      <c r="H75" s="89"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
       <c r="I75" s="28"/>
     </row>
-    <row r="76" spans="1:9" s="88" customFormat="1">
+    <row r="76" spans="1:9" ht="25.5">
       <c r="A76" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
-      <c r="B76" s="117" t="s">
+      <c r="B76" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="89"/>
-      <c r="D76" s="89"/>
-      <c r="E76" s="89"/>
-      <c r="F76" s="89"/>
-      <c r="G76" s="89"/>
-      <c r="H76" s="89"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
       <c r="I76" s="28"/>
     </row>
     <row r="77" spans="1:9" ht="42" customHeight="1">
       <c r="A77" s="37"/>
-      <c r="B77" s="60" t="s">
+      <c r="B77" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="63"/>
-      <c r="F77" s="63"/>
-      <c r="G77" s="63"/>
-      <c r="H77" s="63"/>
-      <c r="I77" s="64"/>
+      <c r="C77" s="100"/>
+      <c r="D77" s="100"/>
+      <c r="E77" s="100"/>
+      <c r="F77" s="100"/>
+      <c r="G77" s="100"/>
+      <c r="H77" s="100"/>
+      <c r="I77" s="101"/>
     </row>
     <row r="78" spans="1:9" ht="32.25" customHeight="1">
       <c r="A78" s="32"/>
@@ -3283,11 +3251,11 @@
       <c r="H78" s="33"/>
       <c r="I78" s="32"/>
     </row>
-    <row r="79" spans="1:9" ht="26.4">
+    <row r="79" spans="1:9" ht="25.5">
       <c r="A79" s="28">
         <v>43</v>
       </c>
-      <c r="B79" s="111" t="s">
+      <c r="B79" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C79" s="22"/>
@@ -3298,11 +3266,11 @@
       <c r="H79" s="22"/>
       <c r="I79" s="28"/>
     </row>
-    <row r="80" spans="1:9" ht="26.4">
+    <row r="80" spans="1:9" ht="25.5">
       <c r="A80" s="28">
         <v>44</v>
       </c>
-      <c r="B80" s="111" t="s">
+      <c r="B80" s="22" t="s">
         <v>75</v>
       </c>
       <c r="C80" s="22"/>
@@ -3313,12 +3281,12 @@
       <c r="H80" s="22"/>
       <c r="I80" s="28"/>
     </row>
-    <row r="81" spans="1:9" ht="26.4">
+    <row r="81" spans="1:9" ht="25.5">
       <c r="A81" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
-      <c r="B81" s="111" t="s">
+      <c r="B81" s="22" t="s">
         <v>74</v>
       </c>
       <c r="C81" s="22"/>
@@ -3329,7 +3297,7 @@
       <c r="H81" s="22"/>
       <c r="I81" s="28"/>
     </row>
-    <row r="82" spans="1:9" ht="31.2" customHeight="1">
+    <row r="82" spans="1:9" ht="31.15" customHeight="1">
       <c r="A82" s="29"/>
       <c r="B82" s="34" t="s">
         <v>25</v>
@@ -3342,7 +3310,7 @@
       <c r="H82" s="29"/>
       <c r="I82" s="31"/>
     </row>
-    <row r="83" spans="1:9" ht="26.4">
+    <row r="83" spans="1:9" ht="25.5">
       <c r="A83" s="28">
         <f ca="1">IF(OFFSET(A83,-1,0) ="",OFFSET(A83,-2,0)+1,OFFSET(A83,-1,0)+1 )</f>
         <v>46</v>
@@ -3358,7 +3326,7 @@
       <c r="H83" s="22"/>
       <c r="I83" s="28"/>
     </row>
-    <row r="84" spans="1:9" s="90" customFormat="1" ht="26.25" customHeight="1">
+    <row r="84" spans="1:9" ht="26.25" customHeight="1">
       <c r="A84" s="35"/>
       <c r="B84" s="34" t="s">
         <v>29</v>
@@ -3376,7 +3344,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>47</v>
       </c>
-      <c r="B85" s="111" t="s">
+      <c r="B85" s="22" t="s">
         <v>80</v>
       </c>
       <c r="C85" s="22"/>
@@ -3387,20 +3355,20 @@
       <c r="H85" s="22"/>
       <c r="I85" s="28"/>
     </row>
-    <row r="86" spans="1:9" s="84" customFormat="1" ht="17.399999999999999">
-      <c r="A86" s="85"/>
-      <c r="B86" s="94" t="s">
+    <row r="86" spans="1:9" s="60" customFormat="1" ht="18">
+      <c r="A86" s="61"/>
+      <c r="B86" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="95"/>
-      <c r="D86" s="96"/>
-      <c r="E86" s="86"/>
-      <c r="F86" s="87"/>
-      <c r="G86" s="87"/>
-      <c r="H86" s="87"/>
-      <c r="I86" s="86"/>
-    </row>
-    <row r="87" spans="1:9" s="90" customFormat="1" ht="32.25" customHeight="1">
+      <c r="C86" s="78"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="62"/>
+    </row>
+    <row r="87" spans="1:9" ht="32.25" customHeight="1">
       <c r="A87" s="32"/>
       <c r="B87" s="44" t="s">
         <v>24</v>
@@ -3413,11 +3381,11 @@
       <c r="H87" s="33"/>
       <c r="I87" s="32"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" ht="25.5">
       <c r="A88" s="28">
         <v>48</v>
       </c>
-      <c r="B88" s="111" t="s">
+      <c r="B88" s="22" t="s">
         <v>82</v>
       </c>
       <c r="C88" s="22"/>
@@ -3433,7 +3401,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>49</v>
       </c>
-      <c r="B89" s="111" t="s">
+      <c r="B89" s="22" t="s">
         <v>83</v>
       </c>
       <c r="C89" s="22"/>
@@ -3444,27 +3412,27 @@
       <c r="H89" s="22"/>
       <c r="I89" s="28"/>
     </row>
-    <row r="90" spans="1:9" s="93" customFormat="1" ht="26.4">
+    <row r="90" spans="1:9" s="66" customFormat="1" ht="25.5">
       <c r="A90" s="28">
         <v>50</v>
       </c>
-      <c r="B90" s="111" t="s">
+      <c r="B90" s="22" t="s">
         <v>84</v>
       </c>
       <c r="C90" s="59"/>
       <c r="D90" s="59"/>
-      <c r="E90" s="91"/>
+      <c r="E90" s="64"/>
       <c r="F90" s="50"/>
       <c r="G90" s="50"/>
       <c r="H90" s="50"/>
-      <c r="I90" s="91"/>
-    </row>
-    <row r="91" spans="1:9" ht="26.4">
+      <c r="I90" s="64"/>
+    </row>
+    <row r="91" spans="1:9" ht="25.5">
       <c r="A91" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>51</v>
       </c>
-      <c r="B91" s="111" t="s">
+      <c r="B91" s="22" t="s">
         <v>85</v>
       </c>
       <c r="C91" s="22"/>
@@ -3475,11 +3443,11 @@
       <c r="H91" s="22"/>
       <c r="I91" s="28"/>
     </row>
-    <row r="92" spans="1:9" ht="26.4">
+    <row r="92" spans="1:9" ht="25.5">
       <c r="A92" s="28">
         <v>52</v>
       </c>
-      <c r="B92" s="111" t="s">
+      <c r="B92" s="22" t="s">
         <v>86</v>
       </c>
       <c r="C92" s="22"/>
@@ -3490,12 +3458,12 @@
       <c r="H92" s="22"/>
       <c r="I92" s="28"/>
     </row>
-    <row r="93" spans="1:9" ht="26.4">
+    <row r="93" spans="1:9" ht="25.5">
       <c r="A93" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
-      <c r="B93" s="111" t="s">
+      <c r="B93" s="22" t="s">
         <v>87</v>
       </c>
       <c r="C93" s="22"/>
@@ -3506,7 +3474,7 @@
       <c r="H93" s="22"/>
       <c r="I93" s="28"/>
     </row>
-    <row r="94" spans="1:9" s="90" customFormat="1" ht="31.5" customHeight="1">
+    <row r="94" spans="1:9" ht="31.5" customHeight="1">
       <c r="A94" s="29"/>
       <c r="B94" s="34" t="s">
         <v>25</v>
@@ -3519,12 +3487,12 @@
       <c r="H94" s="29"/>
       <c r="I94" s="31"/>
     </row>
-    <row r="95" spans="1:9" ht="26.4">
+    <row r="95" spans="1:9" ht="25.5">
       <c r="A95" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="B95" s="111" t="s">
+      <c r="B95" s="22" t="s">
         <v>88</v>
       </c>
       <c r="C95" s="22"/>
@@ -3535,7 +3503,7 @@
       <c r="H95" s="22"/>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="1:9" s="90" customFormat="1" ht="26.25" customHeight="1">
+    <row r="96" spans="1:9" ht="26.25" customHeight="1">
       <c r="A96" s="35"/>
       <c r="B96" s="34" t="s">
         <v>29</v>
@@ -3548,7 +3516,7 @@
       <c r="H96" s="29"/>
       <c r="I96" s="36"/>
     </row>
-    <row r="97" spans="1:9" s="92" customFormat="1">
+    <row r="97" spans="1:9" s="65" customFormat="1" ht="25.5">
       <c r="A97" s="56">
         <v>55</v>
       </c>
@@ -3557,13 +3525,13 @@
       </c>
       <c r="C97" s="48"/>
       <c r="D97" s="48"/>
-      <c r="E97" s="91"/>
+      <c r="E97" s="64"/>
       <c r="F97" s="50"/>
       <c r="G97" s="50"/>
       <c r="H97" s="50"/>
-      <c r="I97" s="91"/>
-    </row>
-    <row r="98" spans="1:9" ht="26.4">
+      <c r="I97" s="64"/>
+    </row>
+    <row r="98" spans="1:9" ht="25.5">
       <c r="A98" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>56</v>
@@ -3579,7 +3547,7 @@
       <c r="H98" s="22"/>
       <c r="I98" s="28"/>
     </row>
-    <row r="99" spans="1:9" ht="26.4">
+    <row r="99" spans="1:9" ht="25.5">
       <c r="A99" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>57</v>
@@ -3595,7 +3563,7 @@
       <c r="H99" s="22"/>
       <c r="I99" s="28"/>
     </row>
-    <row r="100" spans="1:9" s="90" customFormat="1" ht="36.75" customHeight="1">
+    <row r="100" spans="1:9" ht="36.75" customHeight="1">
       <c r="A100" s="32"/>
       <c r="B100" s="44" t="s">
         <v>32</v>
@@ -3656,7 +3624,7 @@
       <c r="H103" s="22"/>
       <c r="I103" s="28"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" ht="25.5">
       <c r="A104" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>61</v>
@@ -3664,15 +3632,15 @@
       <c r="B104" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C104" s="97"/>
-      <c r="D104" s="97"/>
-      <c r="E104" s="97"/>
-      <c r="F104" s="97"/>
-      <c r="G104" s="97"/>
-      <c r="H104" s="97"/>
-      <c r="I104" s="98"/>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="C104" s="67"/>
+      <c r="D104" s="67"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="67"/>
+      <c r="H104" s="67"/>
+      <c r="I104" s="68"/>
+    </row>
+    <row r="105" spans="1:9" ht="25.5">
       <c r="A105" s="28">
         <f t="shared" ca="1" si="0"/>
         <v>62</v>
@@ -3680,37 +3648,37 @@
       <c r="B105" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="C105" s="99"/>
-      <c r="D105" s="99"/>
-      <c r="E105" s="99"/>
-      <c r="F105" s="99"/>
-      <c r="G105" s="99"/>
-      <c r="H105" s="99"/>
-      <c r="I105" s="100"/>
-    </row>
-    <row r="106" spans="1:9" s="84" customFormat="1" ht="17.399999999999999">
-      <c r="A106" s="85"/>
-      <c r="B106" s="94" t="s">
+      <c r="C105" s="69"/>
+      <c r="D105" s="69"/>
+      <c r="E105" s="69"/>
+      <c r="F105" s="69"/>
+      <c r="G105" s="69"/>
+      <c r="H105" s="69"/>
+      <c r="I105" s="70"/>
+    </row>
+    <row r="106" spans="1:9" s="60" customFormat="1" ht="18">
+      <c r="A106" s="61"/>
+      <c r="B106" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="C106" s="95"/>
-      <c r="D106" s="96"/>
-      <c r="E106" s="86"/>
-      <c r="F106" s="87"/>
-      <c r="G106" s="87"/>
-      <c r="H106" s="87"/>
-      <c r="I106" s="86"/>
-    </row>
-    <row r="107" spans="1:9" ht="26.4">
-      <c r="A107" s="104">
+      <c r="C106" s="78"/>
+      <c r="D106" s="79"/>
+      <c r="E106" s="62"/>
+      <c r="F106" s="63"/>
+      <c r="G106" s="63"/>
+      <c r="H106" s="63"/>
+      <c r="I106" s="62"/>
+    </row>
+    <row r="107" spans="1:9" ht="25.5">
+      <c r="A107" s="72">
         <v>63</v>
       </c>
-      <c r="B107" s="117" t="s">
+      <c r="B107" s="76" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="26.4">
-      <c r="A108" s="104">
+    <row r="108" spans="1:9" ht="25.5">
+      <c r="A108" s="72">
         <v>64</v>
       </c>
       <c r="B108" s="48" t="s">
@@ -3718,442 +3686,440 @@
       </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="104">
+      <c r="A109" s="72">
         <v>65</v>
       </c>
-      <c r="B109" s="105" t="s">
+      <c r="B109" s="74" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="104">
+      <c r="A110" s="72">
         <v>66</v>
       </c>
-      <c r="B110" s="105" t="s">
+      <c r="B110" s="74" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="26.4">
-      <c r="A111" s="104">
+    <row r="111" spans="1:9" ht="25.5">
+      <c r="A111" s="72">
         <v>67</v>
       </c>
-      <c r="B111" s="105" t="s">
+      <c r="B111" s="74" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="84" customFormat="1" ht="17.399999999999999">
-      <c r="A112" s="85"/>
-      <c r="B112" s="94" t="s">
+    <row r="112" spans="1:9" s="60" customFormat="1" ht="18">
+      <c r="A112" s="61"/>
+      <c r="B112" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="C112" s="95"/>
-      <c r="D112" s="96"/>
-      <c r="E112" s="86"/>
-      <c r="F112" s="87"/>
-      <c r="G112" s="87"/>
-      <c r="H112" s="87"/>
-      <c r="I112" s="86"/>
-    </row>
-    <row r="113" spans="1:9" ht="26.4">
-      <c r="A113" s="102">
+      <c r="C112" s="78"/>
+      <c r="D112" s="79"/>
+      <c r="E112" s="62"/>
+      <c r="F112" s="63"/>
+      <c r="G112" s="63"/>
+      <c r="H112" s="63"/>
+      <c r="I112" s="62"/>
+    </row>
+    <row r="113" spans="1:9" ht="25.5">
+      <c r="A113" s="72">
         <v>68</v>
       </c>
-      <c r="B113" s="117" t="s">
+      <c r="B113" s="76" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="102">
+      <c r="A114" s="72">
         <v>69</v>
       </c>
-      <c r="B114" s="117" t="s">
+      <c r="B114" s="76" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="84" customFormat="1" ht="17.399999999999999">
-      <c r="A115" s="85"/>
-      <c r="B115" s="94" t="s">
+    <row r="115" spans="1:9" s="60" customFormat="1" ht="18">
+      <c r="A115" s="61"/>
+      <c r="B115" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="C115" s="95"/>
-      <c r="D115" s="96"/>
-      <c r="E115" s="86"/>
-      <c r="F115" s="87"/>
-      <c r="G115" s="87"/>
-      <c r="H115" s="87"/>
-      <c r="I115" s="86"/>
-    </row>
-    <row r="116" spans="1:9" ht="26.4">
-      <c r="A116" s="102">
+      <c r="C115" s="78"/>
+      <c r="D115" s="79"/>
+      <c r="E115" s="62"/>
+      <c r="F115" s="63"/>
+      <c r="G115" s="63"/>
+      <c r="H115" s="63"/>
+      <c r="I115" s="62"/>
+    </row>
+    <row r="116" spans="1:9" ht="25.5">
+      <c r="A116" s="72">
         <v>70</v>
       </c>
-      <c r="B116" s="117" t="s">
+      <c r="B116" s="76" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="39.6">
-      <c r="A117" s="102">
+    <row r="117" spans="1:9" ht="38.25">
+      <c r="A117" s="72">
         <v>71</v>
       </c>
-      <c r="B117" s="117" t="s">
+      <c r="B117" s="76" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="26.4">
-      <c r="A118" s="102">
+    <row r="118" spans="1:9" ht="25.5">
+      <c r="A118" s="72">
         <v>72</v>
       </c>
-      <c r="B118" s="117" t="s">
+      <c r="B118" s="76" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="26.4">
-      <c r="A119" s="102">
+    <row r="119" spans="1:9" ht="25.5">
+      <c r="A119" s="72">
         <v>73</v>
       </c>
-      <c r="B119" s="117" t="s">
+      <c r="B119" s="76" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="26.4">
-      <c r="A120" s="102">
+    <row r="120" spans="1:9" ht="25.5">
+      <c r="A120" s="72">
         <v>74</v>
       </c>
-      <c r="B120" s="117" t="s">
+      <c r="B120" s="76" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="26.4">
-      <c r="A121" s="102">
+    <row r="121" spans="1:9" ht="25.5">
+      <c r="A121" s="72">
         <v>75</v>
       </c>
-      <c r="B121" s="117" t="s">
+      <c r="B121" s="76" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="66">
-      <c r="A122" s="102">
+    <row r="122" spans="1:9" ht="63.75">
+      <c r="A122" s="72">
         <v>76</v>
       </c>
-      <c r="B122" s="117" t="s">
+      <c r="B122" s="76" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="66">
-      <c r="A123" s="102">
+    <row r="123" spans="1:9" ht="63.75">
+      <c r="A123" s="72">
         <v>77</v>
       </c>
-      <c r="B123" s="117" t="s">
+      <c r="B123" s="76" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="26.4">
-      <c r="A124" s="102">
+    <row r="124" spans="1:9" ht="25.5">
+      <c r="A124" s="72">
         <v>78</v>
       </c>
-      <c r="B124" s="116" t="s">
+      <c r="B124" s="75" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="26.4">
-      <c r="A125" s="102">
+    <row r="125" spans="1:9" ht="25.5">
+      <c r="A125" s="72">
         <v>79</v>
       </c>
-      <c r="B125" s="116" t="s">
+      <c r="B125" s="75" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="26.4">
-      <c r="A126" s="102">
+    <row r="126" spans="1:9" ht="25.5">
+      <c r="A126" s="72">
         <v>80</v>
       </c>
-      <c r="B126" s="116" t="s">
+      <c r="B126" s="75" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="108" customFormat="1" ht="26.4">
-      <c r="A127" s="102">
+    <row r="127" spans="1:9" ht="25.5">
+      <c r="A127" s="72">
         <v>81</v>
       </c>
-      <c r="B127" s="116" t="s">
+      <c r="B127" s="75" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="108" customFormat="1" ht="26.4">
-      <c r="A128" s="102"/>
-      <c r="B128" s="117" t="s">
+    <row r="128" spans="1:9" ht="25.5">
+      <c r="A128" s="72"/>
+      <c r="B128" s="76" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="108" customFormat="1" ht="39.6">
-      <c r="A129" s="102"/>
-      <c r="B129" s="117" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" s="108" customFormat="1" ht="39.6">
-      <c r="A130" s="102"/>
-      <c r="B130" s="117" t="s">
+    <row r="129" spans="1:9" ht="25.5">
+      <c r="A129" s="72"/>
+      <c r="B129" s="76" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="39.6">
-      <c r="A131" s="102">
+    <row r="130" spans="1:9" ht="38.25">
+      <c r="A130" s="72"/>
+      <c r="B130" s="76" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="38.25">
+      <c r="A131" s="72">
         <v>81</v>
       </c>
-      <c r="B131" s="117" t="s">
+      <c r="B131" s="76" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" s="60" customFormat="1" ht="18">
+      <c r="A132" s="61"/>
+      <c r="B132" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="C132" s="78"/>
+      <c r="D132" s="79"/>
+      <c r="E132" s="62"/>
+      <c r="F132" s="63"/>
+      <c r="G132" s="63"/>
+      <c r="H132" s="63"/>
+      <c r="I132" s="62"/>
+    </row>
+    <row r="133" spans="1:9" ht="38.25">
+      <c r="A133" s="72">
+        <v>82</v>
+      </c>
+      <c r="B133" s="76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="38.25">
+      <c r="A134" s="72">
+        <v>83</v>
+      </c>
+      <c r="B134" s="76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="25.5">
+      <c r="A135" s="72">
+        <v>84</v>
+      </c>
+      <c r="B135" s="76" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="38.25">
+      <c r="A136" s="72">
+        <v>85</v>
+      </c>
+      <c r="B136" s="76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="25.5">
+      <c r="A137" s="72">
+        <v>86</v>
+      </c>
+      <c r="B137" s="76" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="38.25">
+      <c r="A138" s="72">
+        <v>87</v>
+      </c>
+      <c r="B138" s="76" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="25.5">
+      <c r="A139" s="72">
+        <v>88</v>
+      </c>
+      <c r="B139" s="76" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="25.5">
+      <c r="A140" s="72">
+        <v>89</v>
+      </c>
+      <c r="B140" s="76" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="25.5">
+      <c r="A141" s="72">
+        <v>90</v>
+      </c>
+      <c r="B141" s="76" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="38.25">
+      <c r="A142" s="72">
+        <v>91</v>
+      </c>
+      <c r="B142" s="76" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="25.5">
+      <c r="A143" s="72">
+        <v>92</v>
+      </c>
+      <c r="B143" s="76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="25.5">
+      <c r="A144" s="72">
+        <v>93</v>
+      </c>
+      <c r="B144" s="76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="25.5">
+      <c r="A145" s="72">
+        <v>94</v>
+      </c>
+      <c r="B145" s="76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="25.5">
+      <c r="A146" s="72">
+        <v>95</v>
+      </c>
+      <c r="B146" s="76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="63.75">
+      <c r="A147" s="72">
+        <v>96</v>
+      </c>
+      <c r="B147" s="76" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="63.75">
+      <c r="A148" s="72">
+        <v>97</v>
+      </c>
+      <c r="B148" s="76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="25.5">
+      <c r="A149" s="72">
+        <v>98</v>
+      </c>
+      <c r="B149" s="75" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="25.5">
+      <c r="A150" s="72">
+        <v>99</v>
+      </c>
+      <c r="B150" s="75" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="25.5">
+      <c r="A151" s="72">
+        <v>100</v>
+      </c>
+      <c r="B151" s="75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="25.5">
+      <c r="A152" s="72">
+        <v>101</v>
+      </c>
+      <c r="B152" s="75" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="25.5">
+      <c r="A153" s="72">
+        <v>102</v>
+      </c>
+      <c r="B153" s="76" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="84" customFormat="1" ht="17.399999999999999">
-      <c r="A132" s="85"/>
-      <c r="B132" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C132" s="95"/>
-      <c r="D132" s="96"/>
-      <c r="E132" s="86"/>
-      <c r="F132" s="87"/>
-      <c r="G132" s="87"/>
-      <c r="H132" s="87"/>
-      <c r="I132" s="86"/>
-    </row>
-    <row r="133" spans="1:9" ht="39.6">
-      <c r="A133" s="102">
-        <v>82</v>
-      </c>
-      <c r="B133" s="117" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="39.6">
-      <c r="A134" s="102">
-        <v>83</v>
-      </c>
-      <c r="B134" s="117" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" s="106" customFormat="1" ht="26.4">
-      <c r="A135" s="102">
-        <v>84</v>
-      </c>
-      <c r="B135" s="117" t="s">
+    <row r="154" spans="1:9" ht="25.5">
+      <c r="A154" s="72">
+        <v>103</v>
+      </c>
+      <c r="B154" s="76" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="38.25">
+      <c r="A155" s="72">
+        <v>104</v>
+      </c>
+      <c r="B155" s="76" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="38.25">
+      <c r="A156" s="72">
+        <v>105</v>
+      </c>
+      <c r="B156" s="76" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" s="60" customFormat="1" ht="18">
+      <c r="A157" s="61"/>
+      <c r="B157" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="C157" s="78"/>
+      <c r="D157" s="79"/>
+      <c r="E157" s="62"/>
+      <c r="F157" s="63"/>
+      <c r="G157" s="63"/>
+      <c r="H157" s="63"/>
+      <c r="I157" s="62"/>
+    </row>
+    <row r="158" spans="1:9" ht="57.6" customHeight="1">
+      <c r="B158" s="76" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="106" customFormat="1" ht="39.6">
-      <c r="A136" s="102">
-        <v>85</v>
-      </c>
-      <c r="B136" s="117" t="s">
+    <row r="159" spans="1:9" s="60" customFormat="1" ht="18">
+      <c r="A159" s="61"/>
+      <c r="B159" s="77" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" s="106" customFormat="1" ht="26.4">
-      <c r="A137" s="102">
-        <v>86</v>
-      </c>
-      <c r="B137" s="117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="39.6">
-      <c r="A138" s="102">
-        <v>87</v>
-      </c>
-      <c r="B138" s="117" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="26.4">
-      <c r="A139" s="102">
-        <v>88</v>
-      </c>
-      <c r="B139" s="117" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="26.4">
-      <c r="A140" s="102">
-        <v>89</v>
-      </c>
-      <c r="B140" s="117" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="26.4">
-      <c r="A141" s="102">
-        <v>90</v>
-      </c>
-      <c r="B141" s="117" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="39.6">
-      <c r="A142" s="102">
-        <v>91</v>
-      </c>
-      <c r="B142" s="117" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="26.4">
-      <c r="A143" s="102">
-        <v>92</v>
-      </c>
-      <c r="B143" s="117" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="26.4">
-      <c r="A144" s="102">
-        <v>93</v>
-      </c>
-      <c r="B144" s="117" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="26.4">
-      <c r="A145" s="102">
-        <v>94</v>
-      </c>
-      <c r="B145" s="117" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="26.4">
-      <c r="A146" s="102">
-        <v>95</v>
-      </c>
-      <c r="B146" s="117" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="66">
-      <c r="A147" s="102">
-        <v>96</v>
-      </c>
-      <c r="B147" s="117" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="66">
-      <c r="A148" s="102">
-        <v>97</v>
-      </c>
-      <c r="B148" s="117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="26.4">
-      <c r="A149" s="102">
-        <v>98</v>
-      </c>
-      <c r="B149" s="116" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="26.4">
-      <c r="A150" s="102">
-        <v>99</v>
-      </c>
-      <c r="B150" s="116" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="26.4">
-      <c r="A151" s="102">
-        <v>100</v>
-      </c>
-      <c r="B151" s="116" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" s="107" customFormat="1" ht="26.4">
-      <c r="A152" s="102">
-        <v>101</v>
-      </c>
-      <c r="B152" s="116" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" s="107" customFormat="1" ht="26.4">
-      <c r="A153" s="102">
-        <v>102</v>
-      </c>
-      <c r="B153" s="117" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" s="107" customFormat="1" ht="26.4">
-      <c r="A154" s="102">
-        <v>103</v>
-      </c>
-      <c r="B154" s="117" t="s">
+      <c r="C159" s="78"/>
+      <c r="D159" s="79"/>
+      <c r="E159" s="62"/>
+      <c r="F159" s="63"/>
+      <c r="G159" s="63"/>
+      <c r="H159" s="63"/>
+      <c r="I159" s="62"/>
+    </row>
+    <row r="160" spans="1:9" ht="38.25">
+      <c r="B160" s="76" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" s="107" customFormat="1" ht="39.6">
-      <c r="A155" s="102">
-        <v>104</v>
-      </c>
-      <c r="B155" s="117" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="39.6">
-      <c r="A156" s="102">
-        <v>105</v>
-      </c>
-      <c r="B156" s="117" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" s="84" customFormat="1" ht="17.399999999999999">
-      <c r="A157" s="85"/>
-      <c r="B157" s="94" t="s">
-        <v>106</v>
-      </c>
-      <c r="C157" s="95"/>
-      <c r="D157" s="96"/>
-      <c r="E157" s="86"/>
-      <c r="F157" s="87"/>
-      <c r="G157" s="87"/>
-      <c r="H157" s="87"/>
-      <c r="I157" s="86"/>
-    </row>
-    <row r="158" spans="1:9" ht="57.6" customHeight="1">
-      <c r="B158" s="117" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" s="84" customFormat="1" ht="17.399999999999999">
-      <c r="A159" s="85"/>
-      <c r="B159" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="C159" s="95"/>
-      <c r="D159" s="96"/>
-      <c r="E159" s="86"/>
-      <c r="F159" s="87"/>
-      <c r="G159" s="87"/>
-      <c r="H159" s="87"/>
-      <c r="I159" s="86"/>
-    </row>
-    <row r="160" spans="1:9" ht="39.6">
-      <c r="B160" s="117" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="B86:D86"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="F15:H15"/>
@@ -4163,10 +4129,12 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B77:I77"/>
-    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B157:D157"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="4">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F104:H104" xr:uid="{22D5B14A-DAB4-4743-8F48-474AF2165A84}">
